--- a/data/normalization_by_user.xlsx
+++ b/data/normalization_by_user.xlsx
@@ -207,6 +207,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,12 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
@@ -558,112 +558,112 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6">
         <v>2015011315</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>39.271999999999998</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>-0.71718947567199998</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>-1.1844758956100001</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>-1.38887141143</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>-0.323094817014</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6">
         <v>2012011880</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>49.648000000000003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>7.4084986489399998E-2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>-0.48531996196400001</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>-1.04245930243</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>-1.42190296631</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6">
         <v>2015011318</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>48.895000000000003</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>0.38317922500599999</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>1.16491103988</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>-0.29222805758800002</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>0.31390205681799999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6">
         <v>2015011246</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>66.415000000000006</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>-1.0179059080699999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>0.97344179705</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>-6.4226102123499995E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>1.0230666052299999</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7">
         <v>2015011253</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>65.712999999999994</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>-1.1131739524099999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>0.96699558318800005</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>0.15292736471400001</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0.83956269723800003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -686,112 +686,112 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6">
         <v>2015011315</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>64.078000000000003</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>0.89921702273299997</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>1.6899875613799999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>-0.318606186071</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>0.46195606509300002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6">
         <v>2012011880</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>101.991</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>0.63057382546100005</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>0.30633584473800002</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>0.53188562279399998</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>-0.99007604382199998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6">
         <v>2015011318</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>48.487000000000002</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>-7.3663386564700006E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>0.80248548638299999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>1.1637307972099999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>1.0946842798800001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6">
         <v>2015011246</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>64.926000000000002</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0.80713859655099995</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>-0.97660070960300005</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>0.97222091422199997</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>-0.32443523955499998</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7">
         <v>2015011253</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>118.345</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>-0.22966292077299999</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>2.1374590652999998</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>0.16535152834399999</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>1.28156294619</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1">
@@ -814,127 +814,127 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6">
         <v>2015011315</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>43.015999999999998</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>2.03497858838</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>-0.45283552996799997</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>0.89307450987400006</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>-0.478473163674</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6">
         <v>2012011880</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>52.758000000000003</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>0.46370529970199997</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>-1.06319359991</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <v>-0.88138959639799996</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>3.0043580731699999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6">
         <v>2015011318</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>42.734999999999999</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>0.38375119283999998</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>-1.31697198357</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>-1.2837466262899999</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>0.58869241366900005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="6">
         <v>2015011246</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>64.742000000000004</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>0.72674586349500003</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>-0.14705458717100001</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="4">
         <v>0.85856131529500002</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>-0.36304163591900002</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7">
         <v>2015011253</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>116.613</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>0.36480772197</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>-1.9775933204</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>-0.98342112219800004</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>0.684044293222</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>2015011319</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>65.563999999999993</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>-0.59837307939399997</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <v>-0.35564086744000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <v>-0.53344027403899996</v>
       </c>
       <c r="G20" s="2">
@@ -942,107 +942,107 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6">
         <v>2015011315</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>73.022999999999996</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>0.75641337644200002</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="4">
         <v>-0.56665017500199999</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="4">
         <v>3.7101783700699997E-2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>-1.3425322531699999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6">
         <v>2012011880</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>208.27799999999999</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>0.97473944963299997</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="4">
         <v>-0.59530664140199996</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <v>0.88158863865100001</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>2.5866908640299999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6">
         <v>2015011318</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>5.0709999999999997</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>-1.23535297941</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>-0.79380824152200002</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <v>-1.97836533116</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>1.0788001144199999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6">
         <v>2015011246</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>65.597999999999999</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>-0.64732304524299999</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>1.5613113510000001</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <v>-2.0882795678899999</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="8">
         <v>-1.2936196472699999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10">
+      <c r="A25" s="12"/>
+      <c r="B25" s="7">
         <v>2015011253</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>187.49299999999999</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>-0.61842274175300005</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>-0.51103450455499999</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <v>-0.65581328193800004</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <v>-0.50358935613800004</v>
       </c>
     </row>
